--- a/data/trans_orig/P36BPD02_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>73990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57086</v>
+        <v>58435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94073</v>
+        <v>92995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1384956226020981</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1068553245546765</v>
+        <v>0.1093799242034932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.17608836425686</v>
+        <v>0.174069178365654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -762,19 +762,19 @@
         <v>73799</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60559</v>
+        <v>60245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89850</v>
+        <v>88760</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1536754380560305</v>
+        <v>0.1536754380560306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1261042766374661</v>
+        <v>0.1254514775927826</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1870984440335883</v>
+        <v>0.1848284280587387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -783,19 +783,19 @@
         <v>147789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123894</v>
+        <v>124280</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171541</v>
+        <v>169233</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1456814328778012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1221269388014047</v>
+        <v>0.1225074862648961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1690940197380831</v>
+        <v>0.166819364864902</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>261784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238281</v>
+        <v>235860</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284924</v>
+        <v>283678</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4900126840749056</v>
+        <v>0.4900126840749057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4460178003636818</v>
+        <v>0.4414875359568093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5333261239764338</v>
+        <v>0.530994493383349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -833,19 +833,19 @@
         <v>236269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>216193</v>
+        <v>216848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255474</v>
+        <v>254993</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4919927114700902</v>
+        <v>0.49199271147009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.450189110110073</v>
+        <v>0.4515531187143394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.53198417354857</v>
+        <v>0.5309840673449409</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>595</v>
@@ -854,19 +854,19 @@
         <v>498054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>467255</v>
+        <v>468881</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529030</v>
+        <v>529454</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4909499880392173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4605908231149427</v>
+        <v>0.4621930618782368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5214851194274498</v>
+        <v>0.5219024168221921</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>198466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178219</v>
+        <v>177298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>223055</v>
+        <v>223185</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3714916933229961</v>
+        <v>0.3714916933229963</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3335938927141597</v>
+        <v>0.3318691823922014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4175177155797669</v>
+        <v>0.4177625966658636</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>254</v>
@@ -904,19 +904,19 @@
         <v>170160</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151425</v>
+        <v>154636</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>186621</v>
+        <v>190927</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3543318504738792</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.315319789301683</v>
+        <v>0.3220062011881241</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3886100676185266</v>
+        <v>0.3975755016796722</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>458</v>
@@ -925,19 +925,19 @@
         <v>368626</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>338108</v>
+        <v>340154</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>396457</v>
+        <v>397842</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3633685790829814</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3332857246386421</v>
+        <v>0.3353027999228801</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3908022678083019</v>
+        <v>0.3921681379488455</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>60622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45215</v>
+        <v>46174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77689</v>
+        <v>76434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1294164202960857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09652527440803667</v>
+        <v>0.09857224673373276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1658505065706729</v>
+        <v>0.1631710847819642</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -1050,19 +1050,19 @@
         <v>47961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38017</v>
+        <v>37168</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62153</v>
+        <v>59826</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1147085292969682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09092489065328892</v>
+        <v>0.08889426694981825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1486504420896655</v>
+        <v>0.1430853074424734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>123</v>
@@ -1071,19 +1071,19 @@
         <v>108584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91114</v>
+        <v>89899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129223</v>
+        <v>129783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.122479847942486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1027746624101107</v>
+        <v>0.1014041739962741</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1457604160417927</v>
+        <v>0.1463921902849403</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>220148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>198860</v>
+        <v>198199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>246393</v>
+        <v>242653</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.469971156402261</v>
+        <v>0.4699711564022609</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4245245047913503</v>
+        <v>0.4231139375480344</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5259981687384679</v>
+        <v>0.5180137332799852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>271</v>
@@ -1121,19 +1121,19 @@
         <v>191024</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170717</v>
+        <v>174466</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>207214</v>
+        <v>208930</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4568721787934445</v>
+        <v>0.4568721787934446</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4083024899324145</v>
+        <v>0.4172711175992954</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.495594311134666</v>
+        <v>0.4996986175898073</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>501</v>
@@ -1142,19 +1142,19 @@
         <v>411172</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>383815</v>
+        <v>382406</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>442484</v>
+        <v>437509</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4637933838074553</v>
+        <v>0.4637933838074552</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4329350876320144</v>
+        <v>0.4313451424231612</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4991127095595597</v>
+        <v>0.4935010113692868</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>187658</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163590</v>
+        <v>166362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208966</v>
+        <v>212095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4006124233016533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3492302417777727</v>
+        <v>0.3551486349369807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.446099588168665</v>
+        <v>0.4527800227876796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>248</v>
@@ -1192,19 +1192,19 @@
         <v>179128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>163104</v>
+        <v>162005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199475</v>
+        <v>197534</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4284192919095871</v>
+        <v>0.4284192919095872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3900962116471171</v>
+        <v>0.3874670645272259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.477084078529854</v>
+        <v>0.472441026722054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>426</v>
@@ -1213,19 +1213,19 @@
         <v>366786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>335749</v>
+        <v>337714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>395169</v>
+        <v>395314</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4137267682500588</v>
+        <v>0.4137267682500587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3787173147380409</v>
+        <v>0.3809340629269256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4457417406943429</v>
+        <v>0.445905464286914</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>66172</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51738</v>
+        <v>51683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83549</v>
+        <v>83519</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1446722123174425</v>
+        <v>0.1446722123174424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1131148847687577</v>
+        <v>0.1129943351234148</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.182664924541593</v>
+        <v>0.1825980403957702</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -1338,19 +1338,19 @@
         <v>19894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13951</v>
+        <v>13557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28008</v>
+        <v>26865</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1099577771324185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07711055998099667</v>
+        <v>0.07493411858997455</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1548044312491842</v>
+        <v>0.148486827392955</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -1359,19 +1359,19 @@
         <v>86066</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71068</v>
+        <v>70164</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104058</v>
+        <v>105647</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1348328362380248</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1113367200828839</v>
+        <v>0.1099206738140873</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1630206490529766</v>
+        <v>0.1655090725328474</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>213524</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190404</v>
+        <v>190516</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234991</v>
+        <v>235697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4668293837081389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.416282415024585</v>
+        <v>0.4165271701642295</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5137625369068489</v>
+        <v>0.5153064071853078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -1409,19 +1409,19 @@
         <v>93721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83419</v>
+        <v>82734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105739</v>
+        <v>104448</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5180160932761181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4610757683269205</v>
+        <v>0.4572882961600699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5844430589342172</v>
+        <v>0.5773081788650872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -1430,19 +1430,19 @@
         <v>307245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>283435</v>
+        <v>282598</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332986</v>
+        <v>330878</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4813376216507382</v>
+        <v>0.4813376216507383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4440373212523959</v>
+        <v>0.4427258111355672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5216646015940195</v>
+        <v>0.5183626897630126</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>177696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>157332</v>
+        <v>153557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200209</v>
+        <v>199672</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3884984039744186</v>
+        <v>0.3884984039744185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.343976470209779</v>
+        <v>0.33572314112619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4377184290538811</v>
+        <v>0.4365448747035586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -1480,19 +1480,19 @@
         <v>67308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56664</v>
+        <v>56727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78746</v>
+        <v>78307</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3720261295914635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3131966127873007</v>
+        <v>0.3135437965080464</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4352494143075937</v>
+        <v>0.4328219592787286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>283</v>
@@ -1501,19 +1501,19 @@
         <v>245004</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>217198</v>
+        <v>221157</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>269580</v>
+        <v>269731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3838295421112369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3402677801382984</v>
+        <v>0.3464700770747382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4223315015338453</v>
+        <v>0.4225676127345782</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>147878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125782</v>
+        <v>126186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175415</v>
+        <v>172083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1394204699470152</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1185879040187159</v>
+        <v>0.1189689386198682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1653821243878531</v>
+        <v>0.1622405028362987</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>175</v>
@@ -1626,19 +1626,19 @@
         <v>129964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111792</v>
+        <v>111695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148570</v>
+        <v>148964</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1563719651825491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1345080832108765</v>
+        <v>0.1343902316119757</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1787581771644431</v>
+        <v>0.179232949239808</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -1647,19 +1647,19 @@
         <v>277842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>250084</v>
+        <v>246371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>310023</v>
+        <v>312239</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1468677967904003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1321949311840294</v>
+        <v>0.1302318758922184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1638787235174112</v>
+        <v>0.1650499915307879</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>468008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>430367</v>
+        <v>435101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500981</v>
+        <v>504671</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4412407647325334</v>
+        <v>0.4412407647325333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4057526119709969</v>
+        <v>0.4102161296619411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4723272874598392</v>
+        <v>0.4758064572401271</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>477</v>
@@ -1697,19 +1697,19 @@
         <v>336913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>313497</v>
+        <v>311906</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>363231</v>
+        <v>360012</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4053717890954605</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3771981500251292</v>
+        <v>0.3752840864587972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.437036943215265</v>
+        <v>0.4331639282714511</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>950</v>
@@ -1718,19 +1718,19 @@
         <v>804921</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>763948</v>
+        <v>766789</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>847933</v>
+        <v>848750</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4254823917161669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4038240858125781</v>
+        <v>0.4053255183321321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4482185424126846</v>
+        <v>0.4486502800437333</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>444778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>410432</v>
+        <v>408317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>479825</v>
+        <v>479216</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4193387653204516</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3869574332136486</v>
+        <v>0.3849636831924725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4523814586020573</v>
+        <v>0.4518071580329283</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>537</v>
@@ -1768,19 +1768,19 @@
         <v>364244</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>339512</v>
+        <v>339873</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>391351</v>
+        <v>388381</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4382562457219903</v>
+        <v>0.4382562457219902</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4084984382766439</v>
+        <v>0.4089328109993718</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4708715201637</v>
+        <v>0.4672982391536738</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>982</v>
@@ -1789,19 +1789,19 @@
         <v>809021</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>763838</v>
+        <v>769779</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>850954</v>
+        <v>851394</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4276498114934326</v>
+        <v>0.4276498114934327</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4037660161084797</v>
+        <v>0.406906100500217</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.449815510490792</v>
+        <v>0.4500479206040935</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>122284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102283</v>
+        <v>102493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143138</v>
+        <v>143627</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2300782790844763</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1924454484556577</v>
+        <v>0.1928417483191858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2693141420774914</v>
+        <v>0.2702342416674163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -1914,19 +1914,19 @@
         <v>133171</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116623</v>
+        <v>116759</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152461</v>
+        <v>151819</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1669415642629544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1461977180330699</v>
+        <v>0.1463681265442851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.191124186711238</v>
+        <v>0.1903187323980483</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>325</v>
@@ -1935,19 +1935,19 @@
         <v>255455</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>229575</v>
+        <v>227699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>281659</v>
+        <v>282341</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1921872604177821</v>
+        <v>0.1921872604177822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1727166867028698</v>
+        <v>0.1713051408539677</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2119016483525211</v>
+        <v>0.2124146807196313</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>242310</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>218504</v>
+        <v>219704</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>265433</v>
+        <v>266709</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4559063676966385</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4111150149776534</v>
+        <v>0.4133739408989641</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4994124097721384</v>
+        <v>0.501814125392618</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>543</v>
@@ -1985,19 +1985,19 @@
         <v>341627</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>320909</v>
+        <v>320822</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>367273</v>
+        <v>365031</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4282604221105965</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4022883124873102</v>
+        <v>0.4021797834325986</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4604099354238745</v>
+        <v>0.4575986840818752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>782</v>
@@ -2006,19 +2006,19 @@
         <v>583937</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>552576</v>
+        <v>546127</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>618491</v>
+        <v>615377</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4393148639540008</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4157208917362551</v>
+        <v>0.4108696008282474</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4653108420316608</v>
+        <v>0.4629683328374798</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>166896</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>144923</v>
+        <v>143990</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190022</v>
+        <v>189429</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3140153532188852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2726737888666493</v>
+        <v>0.2709175792020076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3575277862064629</v>
+        <v>0.3564104600073944</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>491</v>
@@ -2056,19 +2056,19 @@
         <v>322911</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>299597</v>
+        <v>300660</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>345744</v>
+        <v>344461</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4047980136264492</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3755718273457518</v>
+        <v>0.3769039568997427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4334214781850546</v>
+        <v>0.4318122406224218</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>656</v>
@@ -2077,19 +2077,19 @@
         <v>489807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>457641</v>
+        <v>456058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>524300</v>
+        <v>522597</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.368497875628217</v>
+        <v>0.3684978756282171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3442984245357881</v>
+        <v>0.3431070517298058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3944480160599579</v>
+        <v>0.3931667073537871</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>38969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24548</v>
+        <v>25300</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56305</v>
+        <v>56428</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1941397403784464</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1222973861041909</v>
+        <v>0.1260415143860632</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2805037119029987</v>
+        <v>0.281120047858313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>180</v>
@@ -2202,19 +2202,19 @@
         <v>149088</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126829</v>
+        <v>124919</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>169955</v>
+        <v>172915</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1896220745466</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.161310349951426</v>
+        <v>0.1588815204221611</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2161617554406248</v>
+        <v>0.2199261425237933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>201</v>
@@ -2223,19 +2223,19 @@
         <v>188058</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>163515</v>
+        <v>161603</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219990</v>
+        <v>219426</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1905408661818652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1656741518164299</v>
+        <v>0.1637373853688494</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2228945388220909</v>
+        <v>0.2223240371062883</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>102416</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79861</v>
+        <v>82130</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122902</v>
+        <v>125623</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5102230237356967</v>
+        <v>0.5102230237356968</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.397858555070942</v>
+        <v>0.4091636645561104</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6122862428095616</v>
+        <v>0.6258380400978344</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>606</v>
@@ -2273,19 +2273,19 @@
         <v>436406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>411099</v>
+        <v>408882</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>464375</v>
+        <v>462273</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5550546827868813</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5228674057882545</v>
+        <v>0.5200467910613917</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.590627364682683</v>
+        <v>0.5879539147275098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>656</v>
@@ -2294,19 +2294,19 @@
         <v>538822</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>505723</v>
+        <v>505578</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>569902</v>
+        <v>574138</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5459369315267227</v>
+        <v>0.5459369315267228</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5124008884825964</v>
+        <v>0.5122546618581016</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5774276942776109</v>
+        <v>0.5817194088022708</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>59342</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42504</v>
+        <v>41228</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>79237</v>
+        <v>81060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2956372358858571</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2117508345396678</v>
+        <v>0.2053945013768468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3947498698163015</v>
+        <v>0.4038333534518756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>292</v>
@@ -2344,19 +2344,19 @@
         <v>200745</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>180416</v>
+        <v>179091</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>224941</v>
+        <v>225388</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2553232426665188</v>
+        <v>0.2553232426665187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2294664417503814</v>
+        <v>0.2277818083545284</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2860967276124338</v>
+        <v>0.2866656368983022</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>322</v>
@@ -2365,19 +2365,19 @@
         <v>260088</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229801</v>
+        <v>230187</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>288653</v>
+        <v>291947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2635222022914119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2328353244740026</v>
+        <v>0.2332265293194154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2924651454182201</v>
+        <v>0.2958022677303477</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>509916</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>466328</v>
+        <v>466625</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>562138</v>
+        <v>554608</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.156755300410508</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1433556945223902</v>
+        <v>0.1434472051155599</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1728091154083055</v>
+        <v>0.170494362251416</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>754</v>
@@ -2490,19 +2490,19 @@
         <v>553878</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>517948</v>
+        <v>517432</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>595714</v>
+        <v>593066</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1585073342658881</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.148225048513953</v>
+        <v>0.1480773523667766</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1704799666157476</v>
+        <v>0.1697221926456462</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1232</v>
@@ -2511,19 +2511,19 @@
         <v>1063793</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1004525</v>
+        <v>1004183</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1123582</v>
+        <v>1125907</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1576626578115758</v>
+        <v>0.1576626578115757</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1488785581603682</v>
+        <v>0.1488278622489611</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1665237344767406</v>
+        <v>0.1668683921663881</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>1508190</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1445665</v>
+        <v>1444075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1570099</v>
+        <v>1570903</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4636387367825449</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4444177309451993</v>
+        <v>0.4439288413629365</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4826705057253686</v>
+        <v>0.4829175790950826</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2367</v>
@@ -2561,19 +2561,19 @@
         <v>1635960</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1583990</v>
+        <v>1589728</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1688836</v>
+        <v>1690863</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4681751357706528</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4533023213020275</v>
+        <v>0.4549444274997785</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.483306942897553</v>
+        <v>0.4838869751905365</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3860</v>
@@ -2582,19 +2582,19 @@
         <v>3144150</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3057565</v>
+        <v>3067285</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3227311</v>
+        <v>3226715</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4659880836193176</v>
+        <v>0.4659880836193175</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.453155505572258</v>
+        <v>0.4545960419416982</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4783131001981665</v>
+        <v>0.4782247897213271</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>1234836</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1174279</v>
+        <v>1175461</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1302496</v>
+        <v>1293891</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3796059628069471</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3609898054402937</v>
+        <v>0.3613531584453817</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4004054979854766</v>
+        <v>0.3977602320777675</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1925</v>
@@ -2632,19 +2632,19 @@
         <v>1304496</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1253100</v>
+        <v>1256287</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1359051</v>
+        <v>1354733</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3733175299634591</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3586091656831131</v>
+        <v>0.3595212805113063</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3889299107189303</v>
+        <v>0.3876941130774333</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3127</v>
@@ -2653,19 +2653,19 @@
         <v>2539332</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2463770</v>
+        <v>2460100</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2625666</v>
+        <v>2618014</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3763492585691068</v>
+        <v>0.3763492585691067</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3651503769953721</v>
+        <v>0.3646064295026887</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3891445711896781</v>
+        <v>0.3880104551516253</v>
       </c>
     </row>
     <row r="31">
